--- a/List_B_Inventory.xlsx
+++ b/List_B_Inventory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58C3268C-E61F-4FAE-8DCE-3D178F5CF03A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76CFCB33-02A8-4A0E-A2E3-A71CF6C1E371}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>vernacularName</t>
   </si>
@@ -84,6 +84,28 @@
   <si>
     <t>P2</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>密毛魔芋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>綠背斜紋天蛾</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>保全室</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>有物室外</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>01b93e67-7389-435b-9113-2936c4e1f3d3</t>
+  </si>
+  <si>
+    <t>ab514b5d-d30a-42e8-bf56-fe58063a5892</t>
   </si>
 </sst>
 </file>
@@ -461,7 +483,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -533,6 +555,28 @@
         <v>17</v>
       </c>
     </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/List_B_Inventory.xlsx
+++ b/List_B_Inventory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76CFCB33-02A8-4A0E-A2E3-A71CF6C1E371}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1974887C-434D-494E-98A7-9C620BBDB500}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>vernacularName</t>
   </si>
@@ -106,6 +106,30 @@
   </si>
   <si>
     <t>ab514b5d-d30a-42e8-bf56-fe58063a5892</t>
+  </si>
+  <si>
+    <t>五色鳥</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>臺灣海棗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>P3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bb514b5d-d30a-42e8-bf56-fe58063a5892</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>04b93e67-7389-435b-9113-2936c4e1f3d3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -483,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,47 +558,69 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>20</v>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
